--- a/project_filament/IP_excelfile/joomla_excel.xlsx
+++ b/project_filament/IP_excelfile/joomla_excel.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="3465" windowWidth="14610" xWindow="0" yWindow="2580"/>
+    <workbookView activeTab="3" windowHeight="3465" windowWidth="14610" xWindow="0" yWindow="2580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
     <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
     <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet4" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="113">
   <si>
     <t>Tested By : Jayesh</t>
   </si>
@@ -265,6 +266,96 @@
   </si>
   <si>
     <t>gjhgvjhx</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>jayesh</t>
+  </si>
+  <si>
+    <t>open browser</t>
+  </si>
+  <si>
+    <t>https://demos4.softaculous.com/Joomla/administrator/index.php</t>
+  </si>
+  <si>
+    <t>sendInput for user name</t>
+  </si>
+  <si>
+    <t>sendInput for password</t>
+  </si>
+  <si>
+    <t>click on submit button</t>
+  </si>
+  <si>
+    <t>wait for load</t>
+  </si>
+  <si>
+    <t>Verify images</t>
+  </si>
+  <si>
+    <t>click on add user link</t>
+  </si>
+  <si>
+    <t>pageTitle</t>
+  </si>
+  <si>
+    <t>verifylink_error</t>
+  </si>
+  <si>
+    <t>verifyimage_error</t>
+  </si>
+  <si>
+    <t>check the title</t>
+  </si>
+  <si>
+    <t>Control Panel - My Joomla - Administration</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>click on user link</t>
+  </si>
+  <si>
+    <t>Manage</t>
+  </si>
+  <si>
+    <t>click on user nutton</t>
+  </si>
+  <si>
+    <t>//*[@id="toolbar-new"]/button</t>
+  </si>
+  <si>
+    <t>send by input value</t>
+  </si>
+  <si>
+    <t>Test_01</t>
+  </si>
+  <si>
+    <t>//*[@id="jform_name"]</t>
+  </si>
+  <si>
+    <t>jform_username</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>//*[@id="toolbar-save"]/button</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -663,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E8"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -728,6 +819,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
@@ -738,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" workbookViewId="0" zoomScale="130" zoomScaleNormal="130">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="C13" workbookViewId="0" zoomScale="130" zoomScaleNormal="130">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1196,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1419,4 +1521,460 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H6" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" style="4" width="24.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="34.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="36.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="2" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row ht="30" r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row ht="45" r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row ht="30" r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G17"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId3" verticalDpi="300"/>
+</worksheet>
 </file>